--- a/app/data/absenteeism_data_33.xlsx
+++ b/app/data/absenteeism_data_33.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12131</v>
+        <v>81499</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Julia Souza</t>
+          <t>Kamilly Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,171 +490,171 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>5468.81</v>
+        <v>11221.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27720</v>
+        <v>91643</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milena da Conceição</t>
+          <t>Ana Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>8094.6</v>
+        <v>7320.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66626</v>
+        <v>83023</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nathan Moraes</t>
+          <t>João Lucas Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>3069.93</v>
+        <v>2614.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15534</v>
+        <v>78004</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Maria Vitória Viana</t>
+          <t>Eduardo Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>10634.34</v>
+        <v>9952.360000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21927</v>
+        <v>49719</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isaac da Costa</t>
+          <t>Vitor Gabriel Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>9242.209999999999</v>
+        <v>6511.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33655</v>
+        <v>36270</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Letícia das Neves</t>
+          <t>Leonardo Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>9774.01</v>
+        <v>3329.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28354</v>
+        <v>41531</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Antônio Fernandes</t>
+          <t>Camila da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,26 +664,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>9728.27</v>
+        <v>7771.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55695</v>
+        <v>25922</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Paulo Rodrigues</t>
+          <t>Pedro Miguel da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>7683.75</v>
+        <v>5486.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67187</v>
+        <v>12245</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isaac da Rocha</t>
+          <t>Ana Luiza Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>6687.6</v>
+        <v>11291.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19962</v>
+        <v>29707</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Renan Ramos</t>
+          <t>Ana Lívia Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>5839.65</v>
+        <v>8764.65</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_33.xlsx
+++ b/app/data/absenteeism_data_33.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30233</v>
+        <v>50430</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Gonçalves</t>
+          <t>Heloísa Araújo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>3748.42</v>
+        <v>10178.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12095</v>
+        <v>51793</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Cavalcanti</t>
+          <t>Murilo Porto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,143 +523,143 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>5771.86</v>
+        <v>6821.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81923</v>
+        <v>10869</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Otávio Costa</t>
+          <t>Srta. Nicole Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>4193.64</v>
+        <v>8597.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36282</v>
+        <v>3779</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcelo Moreira</t>
+          <t>Vinicius Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>9852.92</v>
+        <v>5680.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37400</v>
+        <v>87859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Evelyn Dias</t>
+          <t>Heitor Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>10627.1</v>
+        <v>12252.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64734</v>
+        <v>36658</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabriela da Paz</t>
+          <t>Dr. Luigi Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>10442.26</v>
+        <v>3856.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70804</v>
+        <v>25395</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luana Martins</t>
+          <t>Davi da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,51 +668,51 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>3520.08</v>
+        <v>9056.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1946</v>
+        <v>85344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beatriz Moreira</t>
+          <t>Sophie Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>9005.27</v>
+        <v>5038.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98260</v>
+        <v>38444</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Júlia Barros</t>
+          <t>Rafael Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>12295.23</v>
+        <v>4011.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49381</v>
+        <v>46462</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Carvalho</t>
+          <t>Stephany Moraes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>9035.91</v>
+        <v>12325.3</v>
       </c>
     </row>
   </sheetData>
